--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="132" yWindow="588" windowWidth="22716" windowHeight="8676"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="329">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -24,13 +27,14 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Follow on Youtube : </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.youtube.com/c/arshgoyal</t>
     </r>
@@ -527,17 +531,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
       </rPr>
       <t>https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1029,126 +1035,165 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="24">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF1155CC"/>
-    </font>
-    <font>
-      <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Open Sans&quot;"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Open Sans&quot;"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Open Sans&quot;"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF4C8AC9"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF060606"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1156,108 +1201,94 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1447,30 +1478,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.25"/>
-    <col customWidth="1" min="2" max="2" width="65.88"/>
-    <col customWidth="1" min="3" max="3" width="32.88"/>
-    <col customWidth="1" min="4" max="4" width="24.0"/>
-    <col customWidth="1" min="5" max="5" width="14.88"/>
-    <col customWidth="1" min="6" max="6" width="15.25"/>
-    <col customWidth="1" min="8" max="8" width="15.38"/>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="65.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1481,14 +1517,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1508,7 +1544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1517,68 +1553,71 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="13.8">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="13.8">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="13.8">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="13.8">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="13.8">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="27" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1592,7 +1631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1606,7 +1645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1617,7 +1656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -1625,7 +1664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1633,7 +1672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -1644,7 +1683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -1658,7 +1697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -1672,7 +1711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -1680,7 +1719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1688,7 +1727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1696,7 +1735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
@@ -1704,7 +1743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1715,7 +1754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -1726,7 +1765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1737,7 +1776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -1748,7 +1787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
@@ -1759,7 +1798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
@@ -1767,7 +1806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -1775,7 +1814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
@@ -1783,7 +1822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" ht="13.2">
       <c r="A30" s="6" t="s">
         <v>39</v>
       </c>
@@ -1791,7 +1830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" ht="13.2">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -1802,7 +1841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" ht="13.2">
       <c r="A32" s="6" t="s">
         <v>39</v>
       </c>
@@ -1811,43 +1850,52 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" ht="13.2">
       <c r="D33" s="6"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" ht="13.2">
       <c r="B34" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="6"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" ht="13.8">
       <c r="A35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="C35" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="13.8">
       <c r="A36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="26" t="s">
         <v>45</v>
       </c>
+      <c r="C36" s="27" t="s">
+        <v>14</v>
+      </c>
       <c r="H36" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" ht="13.8">
       <c r="A37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="C37" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="13.2">
       <c r="A38" s="6" t="s">
         <v>12</v>
       </c>
@@ -1858,7 +1906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" ht="13.2">
       <c r="A39" s="6" t="s">
         <v>12</v>
       </c>
@@ -1866,7 +1914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" ht="13.2">
       <c r="A40" s="6" t="s">
         <v>49</v>
       </c>
@@ -1877,7 +1925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" ht="13.2">
       <c r="A41" s="6" t="s">
         <v>49</v>
       </c>
@@ -1888,7 +1936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" ht="13.2">
       <c r="A42" s="6" t="s">
         <v>49</v>
       </c>
@@ -1902,7 +1950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" ht="13.2">
       <c r="A43" s="6" t="s">
         <v>49</v>
       </c>
@@ -1913,7 +1961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8" ht="13.2">
       <c r="A44" s="6" t="s">
         <v>49</v>
       </c>
@@ -1924,7 +1972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8" ht="13.2">
       <c r="A45" s="6" t="s">
         <v>49</v>
       </c>
@@ -1932,7 +1980,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8" ht="13.2">
       <c r="A46" s="6" t="s">
         <v>49</v>
       </c>
@@ -1940,7 +1988,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8" ht="13.2">
       <c r="A47" s="6" t="s">
         <v>49</v>
       </c>
@@ -1948,7 +1996,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8" ht="13.2">
       <c r="A48" s="6" t="s">
         <v>49</v>
       </c>
@@ -1956,7 +2004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8" ht="13.2">
       <c r="A49" s="6" t="s">
         <v>39</v>
       </c>
@@ -1964,7 +2012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8" ht="13.2">
       <c r="A50" s="6" t="s">
         <v>39</v>
       </c>
@@ -1975,7 +2023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8" ht="13.2">
       <c r="A51" s="6" t="s">
         <v>39</v>
       </c>
@@ -1986,7 +2034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8" ht="13.2">
       <c r="A52" s="6" t="s">
         <v>39</v>
       </c>
@@ -1997,7 +2045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8" ht="13.2">
       <c r="A53" s="6" t="s">
         <v>39</v>
       </c>
@@ -2005,7 +2053,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" ht="13.2">
       <c r="A54" s="6" t="s">
         <v>39</v>
       </c>
@@ -2013,12 +2061,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8" ht="13.2">
       <c r="H55" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" ht="13.2">
       <c r="B56" s="5" t="s">
         <v>65</v>
       </c>
@@ -2026,7 +2074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8" ht="13.2">
       <c r="A57" s="6" t="s">
         <v>23</v>
       </c>
@@ -2037,7 +2085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" ht="13.2">
       <c r="A58" s="6" t="s">
         <v>23</v>
       </c>
@@ -2045,7 +2093,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8" ht="13.2">
       <c r="A59" s="6" t="s">
         <v>23</v>
       </c>
@@ -2056,7 +2104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" ht="13.2">
       <c r="A60" s="6" t="s">
         <v>23</v>
       </c>
@@ -2064,7 +2112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" ht="13.2">
       <c r="A61" s="6" t="s">
         <v>23</v>
       </c>
@@ -2075,16 +2123,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8" ht="13.2">
       <c r="G62" s="6"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8" ht="13.2">
       <c r="B63" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G63" s="6"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8" ht="13.2">
       <c r="A64" s="6" t="s">
         <v>12</v>
       </c>
@@ -2092,7 +2140,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8" ht="13.2">
       <c r="A65" s="6" t="s">
         <v>12</v>
       </c>
@@ -2106,7 +2154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8" ht="13.2">
       <c r="A66" s="6" t="s">
         <v>12</v>
       </c>
@@ -2117,7 +2165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8" ht="13.2">
       <c r="A67" s="6" t="s">
         <v>12</v>
       </c>
@@ -2125,7 +2173,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8" ht="13.2">
       <c r="A68" s="6" t="s">
         <v>12</v>
       </c>
@@ -2133,7 +2181,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8" ht="13.2">
       <c r="A69" s="6" t="s">
         <v>12</v>
       </c>
@@ -2144,7 +2192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8" ht="13.2">
       <c r="A70" s="6" t="s">
         <v>12</v>
       </c>
@@ -2155,7 +2203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8" ht="13.2">
       <c r="A71" s="6" t="s">
         <v>12</v>
       </c>
@@ -2166,7 +2214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8" ht="13.2">
       <c r="A72" s="6" t="s">
         <v>12</v>
       </c>
@@ -2177,7 +2225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8" ht="13.2">
       <c r="A73" s="6" t="s">
         <v>23</v>
       </c>
@@ -2188,7 +2236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8" ht="13.2">
       <c r="A74" s="6" t="s">
         <v>23</v>
       </c>
@@ -2199,7 +2247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8" ht="13.2">
       <c r="A75" s="6" t="s">
         <v>23</v>
       </c>
@@ -2213,12 +2261,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8" ht="13.2">
       <c r="B77" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8" ht="15">
       <c r="A78" s="6" t="s">
         <v>12</v>
       </c>
@@ -2229,7 +2277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8" ht="13.2">
       <c r="A79" s="6" t="s">
         <v>12</v>
       </c>
@@ -2237,7 +2285,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8" ht="15">
       <c r="A80" s="6" t="s">
         <v>12</v>
       </c>
@@ -2245,7 +2293,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" ht="13.2">
       <c r="A81" s="6" t="s">
         <v>12</v>
       </c>
@@ -2256,7 +2304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" ht="15">
       <c r="A82" s="6" t="s">
         <v>23</v>
       </c>
@@ -2267,7 +2315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" ht="15">
       <c r="A83" s="6" t="s">
         <v>23</v>
       </c>
@@ -2278,7 +2326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" ht="13.2">
       <c r="A84" s="6" t="s">
         <v>23</v>
       </c>
@@ -2292,7 +2340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" ht="15">
       <c r="A85" s="6" t="s">
         <v>23</v>
       </c>
@@ -2306,7 +2354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" ht="15">
       <c r="A86" s="6" t="s">
         <v>23</v>
       </c>
@@ -2317,7 +2365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" ht="13.2">
       <c r="A87" s="6" t="s">
         <v>39</v>
       </c>
@@ -2328,7 +2376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" ht="13.2">
       <c r="A88" s="6" t="s">
         <v>39</v>
       </c>
@@ -2339,7 +2387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" ht="13.2">
       <c r="A89" s="6" t="s">
         <v>39</v>
       </c>
@@ -2347,7 +2395,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" ht="15">
       <c r="A90" s="6" t="s">
         <v>39</v>
       </c>
@@ -2355,7 +2403,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" ht="15">
       <c r="A91" s="6" t="s">
         <v>39</v>
       </c>
@@ -2366,7 +2414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" ht="15">
       <c r="A92" s="6" t="s">
         <v>39</v>
       </c>
@@ -2374,15 +2422,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" ht="15">
       <c r="B93" s="14"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" ht="13.2">
       <c r="B95" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" ht="13.2">
       <c r="A96" s="6" t="s">
         <v>12</v>
       </c>
@@ -2396,7 +2444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8" ht="13.2">
       <c r="A97" s="6" t="s">
         <v>12</v>
       </c>
@@ -2407,7 +2455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8" ht="13.2">
       <c r="A98" s="6" t="s">
         <v>12</v>
       </c>
@@ -2421,7 +2469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:8" ht="13.2">
       <c r="A99" s="6" t="s">
         <v>12</v>
       </c>
@@ -2432,7 +2480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8" ht="13.2">
       <c r="A100" s="6" t="s">
         <v>12</v>
       </c>
@@ -2443,7 +2491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:8" ht="13.2">
       <c r="A101" s="6" t="s">
         <v>12</v>
       </c>
@@ -2454,7 +2502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:8" ht="13.2">
       <c r="A102" s="6" t="s">
         <v>12</v>
       </c>
@@ -2471,7 +2519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:8" ht="13.2">
       <c r="A103" s="6" t="s">
         <v>12</v>
       </c>
@@ -2482,7 +2530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:8" ht="13.2">
       <c r="A104" s="6" t="s">
         <v>12</v>
       </c>
@@ -2490,7 +2538,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:8" ht="13.2">
       <c r="A105" s="6" t="s">
         <v>12</v>
       </c>
@@ -2501,7 +2549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:8" ht="13.2">
       <c r="A106" s="6" t="s">
         <v>12</v>
       </c>
@@ -2512,7 +2560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:8" ht="13.2">
       <c r="A107" s="6" t="s">
         <v>12</v>
       </c>
@@ -2523,7 +2571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:8" ht="13.2">
       <c r="A108" s="6" t="s">
         <v>23</v>
       </c>
@@ -2534,7 +2582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:8" ht="13.2">
       <c r="A109" s="6" t="s">
         <v>23</v>
       </c>
@@ -2545,7 +2593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:8" ht="13.2">
       <c r="A110" s="6" t="s">
         <v>23</v>
       </c>
@@ -2556,7 +2604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:8" ht="13.2">
       <c r="A111" s="6" t="s">
         <v>23</v>
       </c>
@@ -2564,7 +2612,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:8" ht="13.2">
       <c r="A112" s="6" t="s">
         <v>23</v>
       </c>
@@ -2572,7 +2620,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:8" ht="13.2">
       <c r="A113" s="6" t="s">
         <v>23</v>
       </c>
@@ -2583,7 +2631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:8" ht="13.2">
       <c r="A114" s="6" t="s">
         <v>23</v>
       </c>
@@ -2594,7 +2642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:8" ht="13.2">
       <c r="A115" s="6" t="s">
         <v>23</v>
       </c>
@@ -2605,7 +2653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:8" ht="13.2">
       <c r="A116" s="6" t="s">
         <v>23</v>
       </c>
@@ -2616,7 +2664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:8" ht="13.2">
       <c r="A117" s="6" t="s">
         <v>23</v>
       </c>
@@ -2627,7 +2675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:8" ht="13.2">
       <c r="A118" s="6" t="s">
         <v>23</v>
       </c>
@@ -2638,7 +2686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:8" ht="13.2">
       <c r="A119" s="6" t="s">
         <v>23</v>
       </c>
@@ -2646,7 +2694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:8" ht="13.2">
       <c r="A120" s="6" t="s">
         <v>23</v>
       </c>
@@ -2657,7 +2705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:8" ht="13.2">
       <c r="A121" s="6" t="s">
         <v>39</v>
       </c>
@@ -2665,7 +2713,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:8" ht="13.2">
       <c r="A122" s="6" t="s">
         <v>39</v>
       </c>
@@ -2676,7 +2724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:8" ht="13.2">
       <c r="A123" s="6" t="s">
         <v>39</v>
       </c>
@@ -2687,7 +2735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:8" ht="13.2">
       <c r="A124" s="6" t="s">
         <v>39</v>
       </c>
@@ -2698,7 +2746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:8" ht="13.2">
       <c r="A125" s="6" t="s">
         <v>39</v>
       </c>
@@ -2712,12 +2760,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:8" ht="13.2">
       <c r="D126" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:8" ht="13.2">
       <c r="B127" s="15" t="s">
         <v>129</v>
       </c>
@@ -2725,10 +2773,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:8" ht="13.2">
       <c r="B128" s="11"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:8" ht="13.2">
       <c r="A129" s="6" t="s">
         <v>12</v>
       </c>
@@ -2739,7 +2787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:8" ht="13.2">
       <c r="A130" s="6" t="s">
         <v>12</v>
       </c>
@@ -2753,7 +2801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:8" ht="13.2">
       <c r="A131" s="6" t="s">
         <v>12</v>
       </c>
@@ -2764,7 +2812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:8" ht="13.2">
       <c r="A132" s="6" t="s">
         <v>12</v>
       </c>
@@ -2778,7 +2826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:8" ht="13.2">
       <c r="A133" s="6" t="s">
         <v>12</v>
       </c>
@@ -2792,7 +2840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:8" ht="13.2">
       <c r="A134" s="6" t="s">
         <v>12</v>
       </c>
@@ -2806,7 +2854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:8" ht="13.2">
       <c r="A135" s="6" t="s">
         <v>12</v>
       </c>
@@ -2817,7 +2865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:8" ht="13.2">
       <c r="A136" s="6" t="s">
         <v>23</v>
       </c>
@@ -2825,7 +2873,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:8" ht="13.2">
       <c r="A137" s="6" t="s">
         <v>23</v>
       </c>
@@ -2833,7 +2881,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:8" ht="13.2">
       <c r="A138" s="6" t="s">
         <v>23</v>
       </c>
@@ -2841,7 +2889,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:8" ht="13.2">
       <c r="A139" s="6" t="s">
         <v>23</v>
       </c>
@@ -2852,7 +2900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:8" ht="13.2">
       <c r="A140" s="6" t="s">
         <v>23</v>
       </c>
@@ -2866,7 +2914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:8" ht="13.2">
       <c r="A141" s="6" t="s">
         <v>23</v>
       </c>
@@ -2880,7 +2928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:8" ht="13.2">
       <c r="A142" s="6" t="s">
         <v>23</v>
       </c>
@@ -2891,7 +2939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:8" ht="13.2">
       <c r="A143" s="6" t="s">
         <v>23</v>
       </c>
@@ -2899,7 +2947,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:8" ht="13.2">
       <c r="A144" s="6" t="s">
         <v>23</v>
       </c>
@@ -2907,7 +2955,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:8" ht="13.2">
       <c r="A145" s="6" t="s">
         <v>23</v>
       </c>
@@ -2918,7 +2966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:8" ht="13.2">
       <c r="A146" s="6" t="s">
         <v>39</v>
       </c>
@@ -2929,7 +2977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:8" ht="13.2">
       <c r="A147" s="6" t="s">
         <v>39</v>
       </c>
@@ -2940,7 +2988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:8" ht="13.2">
       <c r="A148" s="6" t="s">
         <v>39</v>
       </c>
@@ -2948,12 +2996,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:8" ht="13.2">
       <c r="B151" s="22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:8" ht="13.2">
       <c r="A152" s="6" t="s">
         <v>12</v>
       </c>
@@ -2964,7 +3012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:8" ht="13.2">
       <c r="A153" s="6" t="s">
         <v>12</v>
       </c>
@@ -2975,7 +3023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:8" ht="13.2">
       <c r="A154" s="6" t="s">
         <v>12</v>
       </c>
@@ -2986,7 +3034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:8" ht="13.2">
       <c r="A155" s="6" t="s">
         <v>12</v>
       </c>
@@ -2994,7 +3042,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:8" ht="13.2">
       <c r="A156" s="6" t="s">
         <v>12</v>
       </c>
@@ -3002,7 +3050,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:8" ht="13.2">
       <c r="A157" s="6" t="s">
         <v>12</v>
       </c>
@@ -3013,7 +3061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:8" ht="13.2">
       <c r="A158" s="6" t="s">
         <v>12</v>
       </c>
@@ -3024,7 +3072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:8" ht="13.2">
       <c r="A159" s="6" t="s">
         <v>12</v>
       </c>
@@ -3035,7 +3083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:8" ht="13.2">
       <c r="A160" s="6" t="s">
         <v>12</v>
       </c>
@@ -3046,7 +3094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:6" ht="13.2">
       <c r="A161" s="6" t="s">
         <v>12</v>
       </c>
@@ -3057,7 +3105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:6" ht="13.2">
       <c r="A162" s="6" t="s">
         <v>12</v>
       </c>
@@ -3068,7 +3116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:6" ht="13.2">
       <c r="A163" s="6" t="s">
         <v>12</v>
       </c>
@@ -3076,7 +3124,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:6" ht="13.2">
       <c r="A164" s="6" t="s">
         <v>12</v>
       </c>
@@ -3084,7 +3132,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:6" ht="13.2">
       <c r="A165" s="6" t="s">
         <v>12</v>
       </c>
@@ -3092,7 +3140,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:6" ht="13.2">
       <c r="A166" s="6" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3148,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:6" ht="13.2">
       <c r="A167" s="6" t="s">
         <v>12</v>
       </c>
@@ -3108,7 +3156,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:6" ht="13.2">
       <c r="A168" s="6" t="s">
         <v>12</v>
       </c>
@@ -3116,7 +3164,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:6" ht="13.2">
       <c r="A169" s="6" t="s">
         <v>12</v>
       </c>
@@ -3124,7 +3172,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:6" ht="13.2">
       <c r="A170" s="6" t="s">
         <v>23</v>
       </c>
@@ -3132,7 +3180,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:6" ht="13.2">
       <c r="A171" s="6" t="s">
         <v>23</v>
       </c>
@@ -3143,7 +3191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:6" ht="13.2">
       <c r="A172" s="6" t="s">
         <v>23</v>
       </c>
@@ -3154,7 +3202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:6" ht="13.2">
       <c r="A173" s="6" t="s">
         <v>23</v>
       </c>
@@ -3165,7 +3213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:6" ht="13.2">
       <c r="A174" s="6" t="s">
         <v>23</v>
       </c>
@@ -3173,7 +3221,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:6" ht="13.2">
       <c r="A175" s="6" t="s">
         <v>23</v>
       </c>
@@ -3181,7 +3229,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:6" ht="13.2">
       <c r="A176" s="6" t="s">
         <v>23</v>
       </c>
@@ -3189,7 +3237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:6" ht="13.2">
       <c r="A177" s="6" t="s">
         <v>23</v>
       </c>
@@ -3200,7 +3248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:6" ht="13.2">
       <c r="A178" s="6" t="s">
         <v>23</v>
       </c>
@@ -3214,7 +3262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:6" ht="13.2">
       <c r="A179" s="6" t="s">
         <v>23</v>
       </c>
@@ -3228,7 +3276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:6" ht="13.2">
       <c r="A180" s="6" t="s">
         <v>23</v>
       </c>
@@ -3239,7 +3287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:6" ht="13.2">
       <c r="A181" s="6" t="s">
         <v>23</v>
       </c>
@@ -3247,7 +3295,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:6" ht="13.2">
       <c r="A182" s="6" t="s">
         <v>23</v>
       </c>
@@ -3255,7 +3303,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:6" ht="13.2">
       <c r="A183" s="6" t="s">
         <v>23</v>
       </c>
@@ -3263,7 +3311,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:6" ht="13.2">
       <c r="A184" s="6" t="s">
         <v>23</v>
       </c>
@@ -3274,7 +3322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:6" ht="13.2">
       <c r="A185" s="6" t="s">
         <v>23</v>
       </c>
@@ -3285,7 +3333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:6" ht="13.2">
       <c r="A186" s="6" t="s">
         <v>23</v>
       </c>
@@ -3296,7 +3344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:6" ht="13.2">
       <c r="A187" s="6" t="s">
         <v>23</v>
       </c>
@@ -3307,7 +3355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:6" ht="13.2">
       <c r="A188" s="6" t="s">
         <v>23</v>
       </c>
@@ -3315,7 +3363,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:6" ht="13.2">
       <c r="A189" s="6" t="s">
         <v>23</v>
       </c>
@@ -3326,7 +3374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:6" ht="13.2">
       <c r="A190" s="6" t="s">
         <v>39</v>
       </c>
@@ -3334,7 +3382,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:6" ht="13.2">
       <c r="A191" s="6" t="s">
         <v>39</v>
       </c>
@@ -3342,7 +3390,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:6" ht="13.2">
       <c r="A192" s="6" t="s">
         <v>39</v>
       </c>
@@ -3353,7 +3401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:8" ht="13.2">
       <c r="A193" s="6" t="s">
         <v>39</v>
       </c>
@@ -3367,7 +3415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:8" ht="13.2">
       <c r="A194" s="6" t="s">
         <v>39</v>
       </c>
@@ -3384,7 +3432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:8" ht="13.2">
       <c r="A195" s="6" t="s">
         <v>39</v>
       </c>
@@ -3392,7 +3440,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:8" ht="13.2">
       <c r="A196" s="6" t="s">
         <v>39</v>
       </c>
@@ -3400,7 +3448,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:8" ht="13.2">
       <c r="A197" s="6" t="s">
         <v>39</v>
       </c>
@@ -3411,7 +3459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:8" ht="13.2">
       <c r="A198" s="6" t="s">
         <v>39</v>
       </c>
@@ -3422,7 +3470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:8" ht="13.2">
       <c r="A199" s="6" t="s">
         <v>39</v>
       </c>
@@ -3430,12 +3478,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:8" ht="13.2">
       <c r="B201" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:8" ht="13.2">
       <c r="A202" s="6" t="s">
         <v>12</v>
       </c>
@@ -3443,7 +3491,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:8" ht="13.2">
       <c r="A203" s="6" t="s">
         <v>12</v>
       </c>
@@ -3454,7 +3502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:8" ht="13.2">
       <c r="A204" s="6" t="s">
         <v>12</v>
       </c>
@@ -3465,7 +3513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:8" ht="13.2">
       <c r="A205" s="6" t="s">
         <v>12</v>
       </c>
@@ -3476,7 +3524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:8" ht="13.2">
       <c r="A206" s="6" t="s">
         <v>12</v>
       </c>
@@ -3487,7 +3535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:8" ht="13.2">
       <c r="A207" s="6" t="s">
         <v>12</v>
       </c>
@@ -3498,7 +3546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:8" ht="13.2">
       <c r="A208" s="6" t="s">
         <v>12</v>
       </c>
@@ -3509,7 +3557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:8" ht="13.2">
       <c r="A209" s="6" t="s">
         <v>23</v>
       </c>
@@ -3517,7 +3565,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:8" ht="13.2">
       <c r="A210" s="6" t="s">
         <v>23</v>
       </c>
@@ -3528,7 +3576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:8" ht="13.2">
       <c r="A211" s="6" t="s">
         <v>23</v>
       </c>
@@ -3542,7 +3590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:8" ht="13.2">
       <c r="A212" s="6" t="s">
         <v>23</v>
       </c>
@@ -3553,7 +3601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:8" ht="13.2">
       <c r="A213" s="6" t="s">
         <v>23</v>
       </c>
@@ -3561,7 +3609,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:8" ht="13.2">
       <c r="A214" s="6" t="s">
         <v>23</v>
       </c>
@@ -3572,7 +3620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:8" ht="13.2">
       <c r="A215" s="6" t="s">
         <v>23</v>
       </c>
@@ -3583,7 +3631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:8" ht="13.2">
       <c r="A216" s="6" t="s">
         <v>23</v>
       </c>
@@ -3591,7 +3639,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:8" ht="13.2">
       <c r="A217" s="6" t="s">
         <v>23</v>
       </c>
@@ -3599,7 +3647,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:8" ht="13.2">
       <c r="A218" s="6" t="s">
         <v>23</v>
       </c>
@@ -3607,7 +3655,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:8" ht="13.2">
       <c r="A219" s="6" t="s">
         <v>23</v>
       </c>
@@ -3618,7 +3666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:8" ht="13.2">
       <c r="A220" s="6" t="s">
         <v>23</v>
       </c>
@@ -3629,7 +3677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:8" ht="13.2">
       <c r="A221" s="6" t="s">
         <v>23</v>
       </c>
@@ -3643,7 +3691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:8" ht="13.2">
       <c r="A222" s="6" t="s">
         <v>23</v>
       </c>
@@ -3654,7 +3702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:8" ht="13.2">
       <c r="A223" s="6" t="s">
         <v>23</v>
       </c>
@@ -3665,7 +3713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:8" ht="13.2">
       <c r="A224" s="6" t="s">
         <v>23</v>
       </c>
@@ -3676,7 +3724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:8" ht="13.2">
       <c r="A225" s="6" t="s">
         <v>23</v>
       </c>
@@ -3687,7 +3735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:8" ht="13.2">
       <c r="A226" s="6" t="s">
         <v>23</v>
       </c>
@@ -3698,7 +3746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:8" ht="13.2">
       <c r="A227" s="6" t="s">
         <v>23</v>
       </c>
@@ -3709,7 +3757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:8" ht="13.2">
       <c r="A228" s="6" t="s">
         <v>23</v>
       </c>
@@ -3720,7 +3768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:8" ht="13.2">
       <c r="A229" s="6" t="s">
         <v>39</v>
       </c>
@@ -3731,7 +3779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:8" ht="13.2">
       <c r="A230" s="6" t="s">
         <v>39</v>
       </c>
@@ -3742,7 +3790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:8" ht="13.2">
       <c r="A231" s="6" t="s">
         <v>39</v>
       </c>
@@ -3750,7 +3798,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:8" ht="13.2">
       <c r="A232" s="6" t="s">
         <v>39</v>
       </c>
@@ -3758,7 +3806,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:8" ht="13.2">
       <c r="A233" s="6" t="s">
         <v>39</v>
       </c>
@@ -3769,7 +3817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:8" ht="13.2">
       <c r="A234" s="6" t="s">
         <v>39</v>
       </c>
@@ -3780,7 +3828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:8" ht="13.2">
       <c r="A235" s="6" t="s">
         <v>39</v>
       </c>
@@ -3791,7 +3839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:8" ht="13.2">
       <c r="A236" s="6" t="s">
         <v>39</v>
       </c>
@@ -3802,7 +3850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:8" ht="13.2">
       <c r="A237" s="6" t="s">
         <v>39</v>
       </c>
@@ -3813,7 +3861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:8" ht="13.2">
       <c r="A238" s="6" t="s">
         <v>39</v>
       </c>
@@ -3821,17 +3869,17 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:8" ht="13.2">
       <c r="D239" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:8" ht="13.2">
       <c r="B240" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:8" ht="13.2">
       <c r="A241" s="6" t="s">
         <v>23</v>
       </c>
@@ -3842,7 +3890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:8" ht="13.2">
       <c r="A242" s="6" t="s">
         <v>23</v>
       </c>
@@ -3856,7 +3904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:8" ht="13.2">
       <c r="A243" s="6" t="s">
         <v>23</v>
       </c>
@@ -3867,7 +3915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:8" ht="13.2">
       <c r="A244" s="6" t="s">
         <v>23</v>
       </c>
@@ -3875,7 +3923,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:8" ht="13.2">
       <c r="A245" s="6" t="s">
         <v>39</v>
       </c>
@@ -3886,7 +3934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:8" ht="13.2">
       <c r="A246" s="6" t="s">
         <v>39</v>
       </c>
@@ -3895,18 +3943,18 @@
       </c>
       <c r="D246" s="6"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:8" ht="13.2">
       <c r="D247" s="6"/>
       <c r="H247" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:8" ht="13.2">
       <c r="B248" s="23" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:8" ht="13.2">
       <c r="A250" s="6" t="s">
         <v>245</v>
       </c>
@@ -3914,7 +3962,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:8" ht="13.2">
       <c r="A251" s="6" t="s">
         <v>245</v>
       </c>
@@ -3925,7 +3973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:8" ht="13.2">
       <c r="A252" s="6" t="s">
         <v>245</v>
       </c>
@@ -3936,7 +3984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:8" ht="13.2">
       <c r="A253" s="6" t="s">
         <v>245</v>
       </c>
@@ -3947,7 +3995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:8" ht="13.2">
       <c r="A254" s="6" t="s">
         <v>245</v>
       </c>
@@ -3955,7 +4003,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:8" ht="13.2">
       <c r="A255" s="6" t="s">
         <v>245</v>
       </c>
@@ -3969,7 +4017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:8" ht="13.2">
       <c r="A256" s="6" t="s">
         <v>245</v>
       </c>
@@ -3977,7 +4025,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:8" ht="13.2">
       <c r="A257" s="6" t="s">
         <v>245</v>
       </c>
@@ -3991,7 +4039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:8" ht="13.2">
       <c r="A258" s="6" t="s">
         <v>245</v>
       </c>
@@ -4005,7 +4053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:8" ht="13.2">
       <c r="A259" s="6" t="s">
         <v>245</v>
       </c>
@@ -4013,7 +4061,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:8" ht="13.2">
       <c r="A260" s="6" t="s">
         <v>39</v>
       </c>
@@ -4021,7 +4069,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:8" ht="13.2">
       <c r="A261" s="6" t="s">
         <v>39</v>
       </c>
@@ -4035,7 +4083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:8" ht="13.2">
       <c r="A262" s="6" t="s">
         <v>39</v>
       </c>
@@ -4043,7 +4091,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:8" ht="13.2">
       <c r="A263" s="6" t="s">
         <v>39</v>
       </c>
@@ -4060,12 +4108,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:8" ht="13.2">
       <c r="B265" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:8" ht="13.2">
       <c r="A266" s="6" t="s">
         <v>12</v>
       </c>
@@ -4073,7 +4121,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:8" ht="13.2">
       <c r="A267" s="6" t="s">
         <v>12</v>
       </c>
@@ -4081,7 +4129,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:8" ht="13.2">
       <c r="A268" s="6" t="s">
         <v>12</v>
       </c>
@@ -4089,7 +4137,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:8" ht="13.2">
       <c r="A269" s="6" t="s">
         <v>12</v>
       </c>
@@ -4100,7 +4148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:8" ht="13.2">
       <c r="A270" s="6" t="s">
         <v>23</v>
       </c>
@@ -4114,7 +4162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:8" ht="13.2">
       <c r="A271" s="6" t="s">
         <v>23</v>
       </c>
@@ -4128,7 +4176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:8" ht="13.2">
       <c r="A272" s="6" t="s">
         <v>23</v>
       </c>
@@ -4136,7 +4184,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:8" ht="13.2">
       <c r="A273" s="6" t="s">
         <v>23</v>
       </c>
@@ -4144,7 +4192,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:8" ht="13.2">
       <c r="A274" s="6" t="s">
         <v>23</v>
       </c>
@@ -4152,7 +4200,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:8" ht="13.2">
       <c r="A275" s="6" t="s">
         <v>23</v>
       </c>
@@ -4166,7 +4214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:8" ht="13.2">
       <c r="A276" s="6" t="s">
         <v>23</v>
       </c>
@@ -4180,7 +4228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:8" ht="13.2">
       <c r="A277" s="6" t="s">
         <v>23</v>
       </c>
@@ -4194,7 +4242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:8" ht="13.2">
       <c r="A278" s="6" t="s">
         <v>23</v>
       </c>
@@ -4202,7 +4250,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:8" ht="13.2">
       <c r="A279" s="6" t="s">
         <v>23</v>
       </c>
@@ -4210,7 +4258,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:8" ht="13.2">
       <c r="A280" s="6" t="s">
         <v>23</v>
       </c>
@@ -4218,7 +4266,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:8" ht="13.2">
       <c r="A281" s="6" t="s">
         <v>23</v>
       </c>
@@ -4232,7 +4280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:8" ht="13.2">
       <c r="A282" s="6" t="s">
         <v>23</v>
       </c>
@@ -4240,7 +4288,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:8" ht="13.2">
       <c r="A283" s="6" t="s">
         <v>23</v>
       </c>
@@ -4248,7 +4296,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:8" ht="13.2">
       <c r="A284" s="6" t="s">
         <v>23</v>
       </c>
@@ -4262,7 +4310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:8" ht="13.2">
       <c r="A285" s="6" t="s">
         <v>39</v>
       </c>
@@ -4276,7 +4324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:8" ht="13.2">
       <c r="A286" s="6" t="s">
         <v>39</v>
       </c>
@@ -4284,7 +4332,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:8" ht="13.2">
       <c r="A287" s="6" t="s">
         <v>39</v>
       </c>
@@ -4295,7 +4343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:8" ht="13.2">
       <c r="A288" s="6" t="s">
         <v>39</v>
       </c>
@@ -4303,7 +4351,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:8" ht="13.2">
       <c r="A289" s="6" t="s">
         <v>39</v>
       </c>
@@ -4317,7 +4365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:8" ht="13.2">
       <c r="A290" s="6" t="s">
         <v>39</v>
       </c>
@@ -4328,7 +4376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:8" ht="13.2">
       <c r="A291" s="6" t="s">
         <v>39</v>
       </c>
@@ -4342,7 +4390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:8" ht="13.2">
       <c r="A292" s="6" t="s">
         <v>39</v>
       </c>
@@ -4350,7 +4398,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:8" ht="13.2">
       <c r="A293" s="6" t="s">
         <v>39</v>
       </c>
@@ -4364,7 +4412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:8" ht="13.2">
       <c r="A294" s="6" t="s">
         <v>39</v>
       </c>
@@ -4372,7 +4420,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:8" ht="13.2">
       <c r="A295" s="6" t="s">
         <v>39</v>
       </c>
@@ -4383,18 +4431,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:8" ht="13.2">
       <c r="D296" s="6"/>
       <c r="G296" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:8" ht="13.2">
       <c r="B297" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:8" ht="13.2">
       <c r="A298" s="6" t="s">
         <v>23</v>
       </c>
@@ -4405,7 +4453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:8" ht="13.2">
       <c r="A299" s="6" t="s">
         <v>23</v>
       </c>
@@ -4416,7 +4464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:8" ht="13.2">
       <c r="A300" s="6" t="s">
         <v>23</v>
       </c>
@@ -4427,12 +4475,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:8" ht="13.2">
       <c r="B303" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:8" ht="13.2">
       <c r="A304" s="6" t="s">
         <v>245</v>
       </c>
@@ -4443,7 +4491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:8" ht="13.2">
       <c r="A305" s="6" t="s">
         <v>245</v>
       </c>
@@ -4457,7 +4505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:8" ht="13.2">
       <c r="A306" s="6" t="s">
         <v>245</v>
       </c>
@@ -4465,7 +4513,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:8" ht="13.2">
       <c r="A307" s="6" t="s">
         <v>245</v>
       </c>
@@ -4473,7 +4521,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:8" ht="13.2">
       <c r="A308" s="6" t="s">
         <v>245</v>
       </c>
@@ -4484,7 +4532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:8" ht="13.2">
       <c r="A309" s="6" t="s">
         <v>245</v>
       </c>
@@ -4495,7 +4543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:8" ht="13.2">
       <c r="A310" s="6" t="s">
         <v>245</v>
       </c>
@@ -4506,7 +4554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:8" ht="13.2">
       <c r="A311" s="6" t="s">
         <v>245</v>
       </c>
@@ -4517,7 +4565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:8" ht="13.2">
       <c r="A312" s="6" t="s">
         <v>245</v>
       </c>
@@ -4531,7 +4579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:8" ht="13.2">
       <c r="A313" s="6" t="s">
         <v>245</v>
       </c>
@@ -4548,12 +4596,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:8" ht="13.2">
       <c r="B316" s="24" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:8" ht="13.2">
       <c r="A317" s="6" t="s">
         <v>23</v>
       </c>
@@ -4561,7 +4609,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:8" ht="13.2">
       <c r="A318" s="6" t="s">
         <v>23</v>
       </c>
@@ -4575,7 +4623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:8" ht="13.2">
       <c r="A319" s="6" t="s">
         <v>23</v>
       </c>
@@ -4586,7 +4634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:8" ht="13.2">
       <c r="A320" s="6" t="s">
         <v>23</v>
       </c>
@@ -4594,7 +4642,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:8" ht="13.2">
       <c r="A321" s="6" t="s">
         <v>23</v>
       </c>
@@ -4605,7 +4653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:8" ht="13.2">
       <c r="A322" s="6" t="s">
         <v>23</v>
       </c>
@@ -4613,7 +4661,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:8" ht="13.2">
       <c r="A323" s="6" t="s">
         <v>23</v>
       </c>
@@ -4624,7 +4672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:8" ht="13.2">
       <c r="A324" s="6" t="s">
         <v>23</v>
       </c>
@@ -4635,7 +4683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:8" ht="13.2">
       <c r="A325" s="6" t="s">
         <v>39</v>
       </c>
@@ -4643,7 +4691,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:8" ht="13.2">
       <c r="A326" s="6" t="s">
         <v>39</v>
       </c>
@@ -4657,7 +4705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:8" ht="13.2">
       <c r="A327" s="6" t="s">
         <v>39</v>
       </c>
@@ -4668,7 +4716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:8" ht="13.2">
       <c r="A328" s="6" t="s">
         <v>39</v>
       </c>
@@ -4682,7 +4730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:8" ht="13.2">
       <c r="A329" s="6" t="s">
         <v>39</v>
       </c>
@@ -4690,7 +4738,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:8" ht="13.2">
       <c r="A330" s="6" t="s">
         <v>39</v>
       </c>
@@ -4698,7 +4746,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:8" ht="13.2">
       <c r="A331" s="6" t="s">
         <v>39</v>
       </c>
@@ -4709,7 +4757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:8" ht="13.2">
       <c r="A332" s="6" t="s">
         <v>39</v>
       </c>
@@ -4723,7 +4771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:8" ht="13.2">
       <c r="A333" s="6" t="s">
         <v>39</v>
       </c>
@@ -4731,7 +4779,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:8" ht="13.2">
       <c r="A334" s="6" t="s">
         <v>39</v>
       </c>
@@ -4742,12 +4790,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:8" ht="13.2">
       <c r="F335" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:8" ht="13.8">
       <c r="B336" s="25" t="s">
         <v>324</v>
       </c>
@@ -4755,7 +4803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:8" ht="13.2">
       <c r="A337" s="6" t="s">
         <v>325</v>
       </c>
@@ -4763,7 +4811,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:8" ht="13.2">
       <c r="A338" s="6" t="s">
         <v>325</v>
       </c>
@@ -4771,7 +4819,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:8" ht="13.2">
       <c r="A339" s="6" t="s">
         <v>325</v>
       </c>
@@ -4785,7 +4833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:8" ht="13.2">
       <c r="A340" s="6" t="s">
         <v>325</v>
       </c>
@@ -4795,325 +4843,325 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B5"/>
-    <hyperlink r:id="rId3" ref="B6"/>
-    <hyperlink r:id="rId4" ref="B7"/>
-    <hyperlink r:id="rId5" ref="B8"/>
-    <hyperlink r:id="rId6" ref="B9"/>
-    <hyperlink r:id="rId7" ref="B10"/>
-    <hyperlink r:id="rId8" ref="B11"/>
-    <hyperlink r:id="rId9" ref="B12"/>
-    <hyperlink r:id="rId10" ref="B13"/>
-    <hyperlink r:id="rId11" ref="B14"/>
-    <hyperlink r:id="rId12" ref="B15"/>
-    <hyperlink r:id="rId13" ref="B16"/>
-    <hyperlink r:id="rId14" ref="B17"/>
-    <hyperlink r:id="rId15" ref="B18"/>
-    <hyperlink r:id="rId16" ref="B19"/>
-    <hyperlink r:id="rId17" ref="B20"/>
-    <hyperlink r:id="rId18" ref="B21"/>
-    <hyperlink r:id="rId19" ref="B22"/>
-    <hyperlink r:id="rId20" ref="B23"/>
-    <hyperlink r:id="rId21" ref="B24"/>
-    <hyperlink r:id="rId22" ref="B25"/>
-    <hyperlink r:id="rId23" ref="B26"/>
-    <hyperlink r:id="rId24" ref="B27"/>
-    <hyperlink r:id="rId25" ref="B28"/>
-    <hyperlink r:id="rId26" ref="B29"/>
-    <hyperlink r:id="rId27" ref="B30"/>
-    <hyperlink r:id="rId28" ref="B31"/>
-    <hyperlink r:id="rId29" ref="B32"/>
-    <hyperlink r:id="rId30" ref="B35"/>
-    <hyperlink r:id="rId31" ref="B36"/>
-    <hyperlink r:id="rId32" ref="B37"/>
-    <hyperlink r:id="rId33" ref="B38"/>
-    <hyperlink r:id="rId34" ref="B39"/>
-    <hyperlink r:id="rId35" ref="B40"/>
-    <hyperlink r:id="rId36" ref="B41"/>
-    <hyperlink r:id="rId37" ref="B42"/>
-    <hyperlink r:id="rId38" ref="B43"/>
-    <hyperlink r:id="rId39" ref="B44"/>
-    <hyperlink r:id="rId40" ref="B45"/>
-    <hyperlink r:id="rId41" ref="B46"/>
-    <hyperlink r:id="rId42" ref="B47"/>
-    <hyperlink r:id="rId43" ref="B48"/>
-    <hyperlink r:id="rId44" ref="B49"/>
-    <hyperlink r:id="rId45" ref="B50"/>
-    <hyperlink r:id="rId46" ref="B51"/>
-    <hyperlink r:id="rId47" ref="B52"/>
-    <hyperlink r:id="rId48" ref="B53"/>
-    <hyperlink r:id="rId49" ref="B54"/>
-    <hyperlink r:id="rId50" ref="B57"/>
-    <hyperlink r:id="rId51" ref="B58"/>
-    <hyperlink r:id="rId52" ref="B59"/>
-    <hyperlink r:id="rId53" ref="B60"/>
-    <hyperlink r:id="rId54" ref="B61"/>
-    <hyperlink r:id="rId55" ref="B64"/>
-    <hyperlink r:id="rId56" ref="B65"/>
-    <hyperlink r:id="rId57" ref="B66"/>
-    <hyperlink r:id="rId58" ref="B67"/>
-    <hyperlink r:id="rId59" ref="B68"/>
-    <hyperlink r:id="rId60" ref="B69"/>
-    <hyperlink r:id="rId61" ref="B70"/>
-    <hyperlink r:id="rId62" ref="B71"/>
-    <hyperlink r:id="rId63" ref="B72"/>
-    <hyperlink r:id="rId64" ref="B73"/>
-    <hyperlink r:id="rId65" ref="B74"/>
-    <hyperlink r:id="rId66" ref="B75"/>
-    <hyperlink r:id="rId67" ref="B78"/>
-    <hyperlink r:id="rId68" ref="B79"/>
-    <hyperlink r:id="rId69" ref="B80"/>
-    <hyperlink r:id="rId70" ref="B81"/>
-    <hyperlink r:id="rId71" ref="B82"/>
-    <hyperlink r:id="rId72" ref="B83"/>
-    <hyperlink r:id="rId73" ref="B84"/>
-    <hyperlink r:id="rId74" ref="B85"/>
-    <hyperlink r:id="rId75" ref="B86"/>
-    <hyperlink r:id="rId76" ref="B87"/>
-    <hyperlink r:id="rId77" ref="B88"/>
-    <hyperlink r:id="rId78" ref="B89"/>
-    <hyperlink r:id="rId79" ref="B90"/>
-    <hyperlink r:id="rId80" ref="B91"/>
-    <hyperlink r:id="rId81" ref="B92"/>
-    <hyperlink r:id="rId82" ref="B96"/>
-    <hyperlink r:id="rId83" ref="B97"/>
-    <hyperlink r:id="rId84" ref="B98"/>
-    <hyperlink r:id="rId85" ref="B99"/>
-    <hyperlink r:id="rId86" ref="B100"/>
-    <hyperlink r:id="rId87" ref="B101"/>
-    <hyperlink r:id="rId88" ref="B102"/>
-    <hyperlink r:id="rId89" ref="B103"/>
-    <hyperlink r:id="rId90" ref="B104"/>
-    <hyperlink r:id="rId91" ref="B105"/>
-    <hyperlink r:id="rId92" ref="B106"/>
-    <hyperlink r:id="rId93" ref="B107"/>
-    <hyperlink r:id="rId94" ref="B108"/>
-    <hyperlink r:id="rId95" ref="B109"/>
-    <hyperlink r:id="rId96" ref="B110"/>
-    <hyperlink r:id="rId97" ref="B111"/>
-    <hyperlink r:id="rId98" ref="B112"/>
-    <hyperlink r:id="rId99" ref="B113"/>
-    <hyperlink r:id="rId100" ref="B114"/>
-    <hyperlink r:id="rId101" ref="B115"/>
-    <hyperlink r:id="rId102" ref="B116"/>
-    <hyperlink r:id="rId103" ref="B117"/>
-    <hyperlink r:id="rId104" ref="B118"/>
-    <hyperlink r:id="rId105" ref="B119"/>
-    <hyperlink r:id="rId106" ref="B120"/>
-    <hyperlink r:id="rId107" ref="B121"/>
-    <hyperlink r:id="rId108" ref="B122"/>
-    <hyperlink r:id="rId109" ref="B123"/>
-    <hyperlink r:id="rId110" ref="B124"/>
-    <hyperlink r:id="rId111" ref="B125"/>
-    <hyperlink r:id="rId112" ref="B129"/>
-    <hyperlink r:id="rId113" ref="B130"/>
-    <hyperlink r:id="rId114" ref="B131"/>
-    <hyperlink r:id="rId115" ref="B132"/>
-    <hyperlink r:id="rId116" ref="B133"/>
-    <hyperlink r:id="rId117" ref="B134"/>
-    <hyperlink r:id="rId118" ref="B135"/>
-    <hyperlink r:id="rId119" ref="B136"/>
-    <hyperlink r:id="rId120" ref="B137"/>
-    <hyperlink r:id="rId121" ref="B138"/>
-    <hyperlink r:id="rId122" ref="B139"/>
-    <hyperlink r:id="rId123" ref="B140"/>
-    <hyperlink r:id="rId124" ref="B141"/>
-    <hyperlink r:id="rId125" ref="B142"/>
-    <hyperlink r:id="rId126" ref="B143"/>
-    <hyperlink r:id="rId127" ref="B144"/>
-    <hyperlink r:id="rId128" ref="B145"/>
-    <hyperlink r:id="rId129" ref="B146"/>
-    <hyperlink r:id="rId130" ref="B147"/>
-    <hyperlink r:id="rId131" ref="B148"/>
-    <hyperlink r:id="rId132" ref="B152"/>
-    <hyperlink r:id="rId133" ref="B153"/>
-    <hyperlink r:id="rId134" ref="B154"/>
-    <hyperlink r:id="rId135" ref="B155"/>
-    <hyperlink r:id="rId136" ref="B156"/>
-    <hyperlink r:id="rId137" ref="B157"/>
-    <hyperlink r:id="rId138" ref="B158"/>
-    <hyperlink r:id="rId139" ref="B159"/>
-    <hyperlink r:id="rId140" ref="B160"/>
-    <hyperlink r:id="rId141" ref="B161"/>
-    <hyperlink r:id="rId142" ref="B162"/>
-    <hyperlink r:id="rId143" ref="B163"/>
-    <hyperlink r:id="rId144" ref="B164"/>
-    <hyperlink r:id="rId145" ref="B165"/>
-    <hyperlink r:id="rId146" ref="B166"/>
-    <hyperlink r:id="rId147" ref="B167"/>
-    <hyperlink r:id="rId148" ref="B168"/>
-    <hyperlink r:id="rId149" ref="B169"/>
-    <hyperlink r:id="rId150" ref="B170"/>
-    <hyperlink r:id="rId151" ref="B171"/>
-    <hyperlink r:id="rId152" ref="B172"/>
-    <hyperlink r:id="rId153" ref="B173"/>
-    <hyperlink r:id="rId154" ref="B174"/>
-    <hyperlink r:id="rId155" ref="B175"/>
-    <hyperlink r:id="rId156" ref="B176"/>
-    <hyperlink r:id="rId157" ref="B177"/>
-    <hyperlink r:id="rId158" ref="B178"/>
-    <hyperlink r:id="rId159" ref="B179"/>
-    <hyperlink r:id="rId160" ref="B180"/>
-    <hyperlink r:id="rId161" ref="B181"/>
-    <hyperlink r:id="rId162" ref="B182"/>
-    <hyperlink r:id="rId163" ref="B183"/>
-    <hyperlink r:id="rId164" ref="B184"/>
-    <hyperlink r:id="rId165" ref="B185"/>
-    <hyperlink r:id="rId166" ref="B186"/>
-    <hyperlink r:id="rId167" ref="B187"/>
-    <hyperlink r:id="rId168" ref="B188"/>
-    <hyperlink r:id="rId169" ref="B189"/>
-    <hyperlink r:id="rId170" ref="B190"/>
-    <hyperlink r:id="rId171" ref="B191"/>
-    <hyperlink r:id="rId172" ref="B192"/>
-    <hyperlink r:id="rId173" ref="B193"/>
-    <hyperlink r:id="rId174" ref="B194"/>
-    <hyperlink r:id="rId175" ref="B195"/>
-    <hyperlink r:id="rId176" ref="B196"/>
-    <hyperlink r:id="rId177" ref="B197"/>
-    <hyperlink r:id="rId178" ref="B198"/>
-    <hyperlink r:id="rId179" ref="B199"/>
-    <hyperlink r:id="rId180" ref="B202"/>
-    <hyperlink r:id="rId181" ref="B203"/>
-    <hyperlink r:id="rId182" ref="B204"/>
-    <hyperlink r:id="rId183" ref="B205"/>
-    <hyperlink r:id="rId184" ref="B206"/>
-    <hyperlink r:id="rId185" ref="B207"/>
-    <hyperlink r:id="rId186" ref="B208"/>
-    <hyperlink r:id="rId187" ref="B209"/>
-    <hyperlink r:id="rId188" ref="B210"/>
-    <hyperlink r:id="rId189" ref="B211"/>
-    <hyperlink r:id="rId190" ref="B212"/>
-    <hyperlink r:id="rId191" ref="B213"/>
-    <hyperlink r:id="rId192" ref="B214"/>
-    <hyperlink r:id="rId193" ref="B215"/>
-    <hyperlink r:id="rId194" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." ref="B216"/>
-    <hyperlink r:id="rId195" ref="B217"/>
-    <hyperlink r:id="rId196" ref="B218"/>
-    <hyperlink r:id="rId197" ref="B219"/>
-    <hyperlink r:id="rId198" ref="B220"/>
-    <hyperlink r:id="rId199" ref="B221"/>
-    <hyperlink r:id="rId200" ref="B222"/>
-    <hyperlink r:id="rId201" ref="B223"/>
-    <hyperlink r:id="rId202" ref="B224"/>
-    <hyperlink r:id="rId203" ref="B225"/>
-    <hyperlink r:id="rId204" ref="B226"/>
-    <hyperlink r:id="rId205" ref="B227"/>
-    <hyperlink r:id="rId206" ref="B228"/>
-    <hyperlink r:id="rId207" ref="B229"/>
-    <hyperlink r:id="rId208" ref="B230"/>
-    <hyperlink r:id="rId209" ref="B231"/>
-    <hyperlink r:id="rId210" ref="B232"/>
-    <hyperlink r:id="rId211" ref="B233"/>
-    <hyperlink r:id="rId212" ref="B234"/>
-    <hyperlink r:id="rId213" ref="B235"/>
-    <hyperlink r:id="rId214" ref="B236"/>
-    <hyperlink r:id="rId215" ref="B237"/>
-    <hyperlink r:id="rId216" ref="B238"/>
-    <hyperlink r:id="rId217" ref="B241"/>
-    <hyperlink r:id="rId218" ref="B242"/>
-    <hyperlink r:id="rId219" ref="B243"/>
-    <hyperlink r:id="rId220" ref="B244"/>
-    <hyperlink r:id="rId221" ref="B245"/>
-    <hyperlink r:id="rId222" ref="B246"/>
-    <hyperlink r:id="rId223" ref="B250"/>
-    <hyperlink r:id="rId224" ref="B251"/>
-    <hyperlink r:id="rId225" ref="B252"/>
-    <hyperlink r:id="rId226" ref="B253"/>
-    <hyperlink r:id="rId227" ref="B254"/>
-    <hyperlink r:id="rId228" ref="B255"/>
-    <hyperlink r:id="rId229" ref="B256"/>
-    <hyperlink r:id="rId230" ref="B257"/>
-    <hyperlink r:id="rId231" ref="B258"/>
-    <hyperlink r:id="rId232" ref="B259"/>
-    <hyperlink r:id="rId233" ref="B260"/>
-    <hyperlink r:id="rId234" ref="B261"/>
-    <hyperlink r:id="rId235" ref="B262"/>
-    <hyperlink r:id="rId236" ref="B263"/>
-    <hyperlink r:id="rId237" ref="B266"/>
-    <hyperlink r:id="rId238" ref="B267"/>
-    <hyperlink r:id="rId239" ref="B268"/>
-    <hyperlink r:id="rId240" ref="B269"/>
-    <hyperlink r:id="rId241" ref="B270"/>
-    <hyperlink r:id="rId242" ref="B271"/>
-    <hyperlink r:id="rId243" ref="B272"/>
-    <hyperlink r:id="rId244" ref="B273"/>
-    <hyperlink r:id="rId245" ref="B274"/>
-    <hyperlink r:id="rId246" ref="B275"/>
-    <hyperlink r:id="rId247" ref="B276"/>
-    <hyperlink r:id="rId248" ref="B277"/>
-    <hyperlink r:id="rId249" ref="B278"/>
-    <hyperlink r:id="rId250" ref="B279"/>
-    <hyperlink r:id="rId251" ref="B280"/>
-    <hyperlink r:id="rId252" ref="B281"/>
-    <hyperlink r:id="rId253" ref="B282"/>
-    <hyperlink r:id="rId254" ref="B283"/>
-    <hyperlink r:id="rId255" ref="B284"/>
-    <hyperlink r:id="rId256" ref="B285"/>
-    <hyperlink r:id="rId257" ref="B286"/>
-    <hyperlink r:id="rId258" ref="B287"/>
-    <hyperlink r:id="rId259" ref="B288"/>
-    <hyperlink r:id="rId260" ref="B289"/>
-    <hyperlink r:id="rId261" ref="B290"/>
-    <hyperlink r:id="rId262" ref="B291"/>
-    <hyperlink r:id="rId263" ref="B292"/>
-    <hyperlink r:id="rId264" ref="B293"/>
-    <hyperlink r:id="rId265" ref="B294"/>
-    <hyperlink r:id="rId266" ref="B295"/>
-    <hyperlink r:id="rId267" ref="B298"/>
-    <hyperlink r:id="rId268" ref="B299"/>
-    <hyperlink r:id="rId269" ref="B300"/>
-    <hyperlink r:id="rId270" ref="B304"/>
-    <hyperlink r:id="rId271" ref="B305"/>
-    <hyperlink r:id="rId272" ref="B306"/>
-    <hyperlink r:id="rId273" ref="B307"/>
-    <hyperlink r:id="rId274" ref="B308"/>
-    <hyperlink r:id="rId275" ref="B309"/>
-    <hyperlink r:id="rId276" ref="B310"/>
-    <hyperlink r:id="rId277" ref="B311"/>
-    <hyperlink r:id="rId278" ref="B312"/>
-    <hyperlink r:id="rId279" ref="B313"/>
-    <hyperlink r:id="rId280" ref="B317"/>
-    <hyperlink r:id="rId281" ref="B318"/>
-    <hyperlink r:id="rId282" ref="B319"/>
-    <hyperlink r:id="rId283" ref="B320"/>
-    <hyperlink r:id="rId284" ref="B321"/>
-    <hyperlink r:id="rId285" ref="B322"/>
-    <hyperlink r:id="rId286" ref="B323"/>
-    <hyperlink r:id="rId287" ref="B324"/>
-    <hyperlink r:id="rId288" ref="B325"/>
-    <hyperlink r:id="rId289" ref="B326"/>
-    <hyperlink r:id="rId290" ref="B327"/>
-    <hyperlink r:id="rId291" ref="B328"/>
-    <hyperlink r:id="rId292" ref="B329"/>
-    <hyperlink r:id="rId293" ref="B330"/>
-    <hyperlink r:id="rId294" ref="B331"/>
-    <hyperlink r:id="rId295" ref="B332"/>
-    <hyperlink r:id="rId296" ref="B333"/>
-    <hyperlink r:id="rId297" ref="B334"/>
-    <hyperlink r:id="rId298" ref="B337"/>
-    <hyperlink r:id="rId299" ref="B338"/>
-    <hyperlink r:id="rId300" ref="B339"/>
-    <hyperlink r:id="rId301" ref="B340"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13"/>
+    <hyperlink ref="B17" r:id="rId14"/>
+    <hyperlink ref="B18" r:id="rId15"/>
+    <hyperlink ref="B19" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B21" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B26" r:id="rId23"/>
+    <hyperlink ref="B27" r:id="rId24"/>
+    <hyperlink ref="B28" r:id="rId25"/>
+    <hyperlink ref="B29" r:id="rId26"/>
+    <hyperlink ref="B30" r:id="rId27"/>
+    <hyperlink ref="B31" r:id="rId28"/>
+    <hyperlink ref="B32" r:id="rId29"/>
+    <hyperlink ref="B35" r:id="rId30"/>
+    <hyperlink ref="B36" r:id="rId31"/>
+    <hyperlink ref="B37" r:id="rId32"/>
+    <hyperlink ref="B38" r:id="rId33"/>
+    <hyperlink ref="B39" r:id="rId34"/>
+    <hyperlink ref="B40" r:id="rId35"/>
+    <hyperlink ref="B41" r:id="rId36"/>
+    <hyperlink ref="B42" r:id="rId37"/>
+    <hyperlink ref="B43" r:id="rId38"/>
+    <hyperlink ref="B44" r:id="rId39"/>
+    <hyperlink ref="B45" r:id="rId40"/>
+    <hyperlink ref="B46" r:id="rId41"/>
+    <hyperlink ref="B47" r:id="rId42"/>
+    <hyperlink ref="B48" r:id="rId43"/>
+    <hyperlink ref="B49" r:id="rId44"/>
+    <hyperlink ref="B50" r:id="rId45"/>
+    <hyperlink ref="B51" r:id="rId46"/>
+    <hyperlink ref="B52" r:id="rId47"/>
+    <hyperlink ref="B53" r:id="rId48"/>
+    <hyperlink ref="B54" r:id="rId49"/>
+    <hyperlink ref="B57" r:id="rId50"/>
+    <hyperlink ref="B58" r:id="rId51"/>
+    <hyperlink ref="B59" r:id="rId52"/>
+    <hyperlink ref="B60" r:id="rId53"/>
+    <hyperlink ref="B61" r:id="rId54"/>
+    <hyperlink ref="B64" r:id="rId55"/>
+    <hyperlink ref="B65" r:id="rId56"/>
+    <hyperlink ref="B66" r:id="rId57"/>
+    <hyperlink ref="B67" r:id="rId58"/>
+    <hyperlink ref="B68" r:id="rId59"/>
+    <hyperlink ref="B69" r:id="rId60"/>
+    <hyperlink ref="B70" r:id="rId61"/>
+    <hyperlink ref="B71" r:id="rId62"/>
+    <hyperlink ref="B72" r:id="rId63"/>
+    <hyperlink ref="B73" r:id="rId64"/>
+    <hyperlink ref="B74" r:id="rId65"/>
+    <hyperlink ref="B75" r:id="rId66"/>
+    <hyperlink ref="B78" r:id="rId67"/>
+    <hyperlink ref="B79" r:id="rId68"/>
+    <hyperlink ref="B80" r:id="rId69"/>
+    <hyperlink ref="B81" r:id="rId70"/>
+    <hyperlink ref="B82" r:id="rId71"/>
+    <hyperlink ref="B83" r:id="rId72"/>
+    <hyperlink ref="B84" r:id="rId73"/>
+    <hyperlink ref="B85" r:id="rId74"/>
+    <hyperlink ref="B86" r:id="rId75"/>
+    <hyperlink ref="B87" r:id="rId76"/>
+    <hyperlink ref="B88" r:id="rId77"/>
+    <hyperlink ref="B89" r:id="rId78"/>
+    <hyperlink ref="B90" r:id="rId79"/>
+    <hyperlink ref="B91" r:id="rId80"/>
+    <hyperlink ref="B92" r:id="rId81"/>
+    <hyperlink ref="B96" r:id="rId82"/>
+    <hyperlink ref="B97" r:id="rId83"/>
+    <hyperlink ref="B98" r:id="rId84"/>
+    <hyperlink ref="B99" r:id="rId85"/>
+    <hyperlink ref="B100" r:id="rId86"/>
+    <hyperlink ref="B101" r:id="rId87"/>
+    <hyperlink ref="B102" r:id="rId88"/>
+    <hyperlink ref="B103" r:id="rId89"/>
+    <hyperlink ref="B104" r:id="rId90"/>
+    <hyperlink ref="B105" r:id="rId91"/>
+    <hyperlink ref="B106" r:id="rId92"/>
+    <hyperlink ref="B107" r:id="rId93"/>
+    <hyperlink ref="B108" r:id="rId94"/>
+    <hyperlink ref="B109" r:id="rId95"/>
+    <hyperlink ref="B110" r:id="rId96"/>
+    <hyperlink ref="B111" r:id="rId97"/>
+    <hyperlink ref="B112" r:id="rId98"/>
+    <hyperlink ref="B113" r:id="rId99"/>
+    <hyperlink ref="B114" r:id="rId100"/>
+    <hyperlink ref="B115" r:id="rId101"/>
+    <hyperlink ref="B116" r:id="rId102"/>
+    <hyperlink ref="B117" r:id="rId103"/>
+    <hyperlink ref="B118" r:id="rId104"/>
+    <hyperlink ref="B119" r:id="rId105"/>
+    <hyperlink ref="B120" r:id="rId106"/>
+    <hyperlink ref="B121" r:id="rId107"/>
+    <hyperlink ref="B122" r:id="rId108"/>
+    <hyperlink ref="B123" r:id="rId109"/>
+    <hyperlink ref="B124" r:id="rId110"/>
+    <hyperlink ref="B125" r:id="rId111"/>
+    <hyperlink ref="B129" r:id="rId112"/>
+    <hyperlink ref="B130" r:id="rId113"/>
+    <hyperlink ref="B131" r:id="rId114"/>
+    <hyperlink ref="B132" r:id="rId115"/>
+    <hyperlink ref="B133" r:id="rId116"/>
+    <hyperlink ref="B134" r:id="rId117"/>
+    <hyperlink ref="B135" r:id="rId118"/>
+    <hyperlink ref="B136" r:id="rId119"/>
+    <hyperlink ref="B137" r:id="rId120"/>
+    <hyperlink ref="B138" r:id="rId121"/>
+    <hyperlink ref="B139" r:id="rId122"/>
+    <hyperlink ref="B140" r:id="rId123"/>
+    <hyperlink ref="B141" r:id="rId124"/>
+    <hyperlink ref="B142" r:id="rId125"/>
+    <hyperlink ref="B143" r:id="rId126"/>
+    <hyperlink ref="B144" r:id="rId127"/>
+    <hyperlink ref="B145" r:id="rId128"/>
+    <hyperlink ref="B146" r:id="rId129"/>
+    <hyperlink ref="B147" r:id="rId130"/>
+    <hyperlink ref="B148" r:id="rId131"/>
+    <hyperlink ref="B152" r:id="rId132"/>
+    <hyperlink ref="B153" r:id="rId133"/>
+    <hyperlink ref="B154" r:id="rId134"/>
+    <hyperlink ref="B155" r:id="rId135"/>
+    <hyperlink ref="B156" r:id="rId136"/>
+    <hyperlink ref="B157" r:id="rId137"/>
+    <hyperlink ref="B158" r:id="rId138"/>
+    <hyperlink ref="B159" r:id="rId139"/>
+    <hyperlink ref="B160" r:id="rId140"/>
+    <hyperlink ref="B161" r:id="rId141"/>
+    <hyperlink ref="B162" r:id="rId142"/>
+    <hyperlink ref="B163" r:id="rId143"/>
+    <hyperlink ref="B164" r:id="rId144"/>
+    <hyperlink ref="B165" r:id="rId145"/>
+    <hyperlink ref="B166" r:id="rId146"/>
+    <hyperlink ref="B167" r:id="rId147"/>
+    <hyperlink ref="B168" r:id="rId148"/>
+    <hyperlink ref="B169" r:id="rId149"/>
+    <hyperlink ref="B170" r:id="rId150"/>
+    <hyperlink ref="B171" r:id="rId151"/>
+    <hyperlink ref="B172" r:id="rId152"/>
+    <hyperlink ref="B173" r:id="rId153"/>
+    <hyperlink ref="B174" r:id="rId154"/>
+    <hyperlink ref="B175" r:id="rId155"/>
+    <hyperlink ref="B176" r:id="rId156"/>
+    <hyperlink ref="B177" r:id="rId157"/>
+    <hyperlink ref="B178" r:id="rId158"/>
+    <hyperlink ref="B179" r:id="rId159"/>
+    <hyperlink ref="B180" r:id="rId160"/>
+    <hyperlink ref="B181" r:id="rId161"/>
+    <hyperlink ref="B182" r:id="rId162"/>
+    <hyperlink ref="B183" r:id="rId163"/>
+    <hyperlink ref="B184" r:id="rId164"/>
+    <hyperlink ref="B185" r:id="rId165"/>
+    <hyperlink ref="B186" r:id="rId166"/>
+    <hyperlink ref="B187" r:id="rId167"/>
+    <hyperlink ref="B188" r:id="rId168"/>
+    <hyperlink ref="B189" r:id="rId169"/>
+    <hyperlink ref="B190" r:id="rId170"/>
+    <hyperlink ref="B191" r:id="rId171"/>
+    <hyperlink ref="B192" r:id="rId172"/>
+    <hyperlink ref="B193" r:id="rId173"/>
+    <hyperlink ref="B194" r:id="rId174"/>
+    <hyperlink ref="B195" r:id="rId175"/>
+    <hyperlink ref="B196" r:id="rId176"/>
+    <hyperlink ref="B197" r:id="rId177"/>
+    <hyperlink ref="B198" r:id="rId178"/>
+    <hyperlink ref="B199" r:id="rId179"/>
+    <hyperlink ref="B202" r:id="rId180"/>
+    <hyperlink ref="B203" r:id="rId181"/>
+    <hyperlink ref="B204" r:id="rId182"/>
+    <hyperlink ref="B205" r:id="rId183"/>
+    <hyperlink ref="B206" r:id="rId184"/>
+    <hyperlink ref="B207" r:id="rId185"/>
+    <hyperlink ref="B208" r:id="rId186"/>
+    <hyperlink ref="B209" r:id="rId187"/>
+    <hyperlink ref="B210" r:id="rId188"/>
+    <hyperlink ref="B211" r:id="rId189"/>
+    <hyperlink ref="B212" r:id="rId190"/>
+    <hyperlink ref="B213" r:id="rId191"/>
+    <hyperlink ref="B214" r:id="rId192"/>
+    <hyperlink ref="B215" r:id="rId193"/>
+    <hyperlink ref="B216" r:id="rId194" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B217" r:id="rId195"/>
+    <hyperlink ref="B218" r:id="rId196"/>
+    <hyperlink ref="B219" r:id="rId197"/>
+    <hyperlink ref="B220" r:id="rId198"/>
+    <hyperlink ref="B221" r:id="rId199"/>
+    <hyperlink ref="B222" r:id="rId200"/>
+    <hyperlink ref="B223" r:id="rId201"/>
+    <hyperlink ref="B224" r:id="rId202"/>
+    <hyperlink ref="B225" r:id="rId203"/>
+    <hyperlink ref="B226" r:id="rId204"/>
+    <hyperlink ref="B227" r:id="rId205"/>
+    <hyperlink ref="B228" r:id="rId206"/>
+    <hyperlink ref="B229" r:id="rId207"/>
+    <hyperlink ref="B230" r:id="rId208"/>
+    <hyperlink ref="B231" r:id="rId209"/>
+    <hyperlink ref="B232" r:id="rId210"/>
+    <hyperlink ref="B233" r:id="rId211"/>
+    <hyperlink ref="B234" r:id="rId212"/>
+    <hyperlink ref="B235" r:id="rId213"/>
+    <hyperlink ref="B236" r:id="rId214"/>
+    <hyperlink ref="B237" r:id="rId215"/>
+    <hyperlink ref="B238" r:id="rId216"/>
+    <hyperlink ref="B241" r:id="rId217"/>
+    <hyperlink ref="B242" r:id="rId218"/>
+    <hyperlink ref="B243" r:id="rId219"/>
+    <hyperlink ref="B244" r:id="rId220"/>
+    <hyperlink ref="B245" r:id="rId221"/>
+    <hyperlink ref="B246" r:id="rId222"/>
+    <hyperlink ref="B250" r:id="rId223"/>
+    <hyperlink ref="B251" r:id="rId224"/>
+    <hyperlink ref="B252" r:id="rId225"/>
+    <hyperlink ref="B253" r:id="rId226"/>
+    <hyperlink ref="B254" r:id="rId227"/>
+    <hyperlink ref="B255" r:id="rId228"/>
+    <hyperlink ref="B256" r:id="rId229"/>
+    <hyperlink ref="B257" r:id="rId230"/>
+    <hyperlink ref="B258" r:id="rId231"/>
+    <hyperlink ref="B259" r:id="rId232"/>
+    <hyperlink ref="B260" r:id="rId233"/>
+    <hyperlink ref="B261" r:id="rId234"/>
+    <hyperlink ref="B262" r:id="rId235"/>
+    <hyperlink ref="B263" r:id="rId236"/>
+    <hyperlink ref="B266" r:id="rId237"/>
+    <hyperlink ref="B267" r:id="rId238"/>
+    <hyperlink ref="B268" r:id="rId239"/>
+    <hyperlink ref="B269" r:id="rId240"/>
+    <hyperlink ref="B270" r:id="rId241"/>
+    <hyperlink ref="B271" r:id="rId242"/>
+    <hyperlink ref="B272" r:id="rId243"/>
+    <hyperlink ref="B273" r:id="rId244"/>
+    <hyperlink ref="B274" r:id="rId245"/>
+    <hyperlink ref="B275" r:id="rId246"/>
+    <hyperlink ref="B276" r:id="rId247"/>
+    <hyperlink ref="B277" r:id="rId248"/>
+    <hyperlink ref="B278" r:id="rId249"/>
+    <hyperlink ref="B279" r:id="rId250"/>
+    <hyperlink ref="B280" r:id="rId251"/>
+    <hyperlink ref="B281" r:id="rId252"/>
+    <hyperlink ref="B282" r:id="rId253"/>
+    <hyperlink ref="B283" r:id="rId254"/>
+    <hyperlink ref="B284" r:id="rId255"/>
+    <hyperlink ref="B285" r:id="rId256"/>
+    <hyperlink ref="B286" r:id="rId257"/>
+    <hyperlink ref="B287" r:id="rId258"/>
+    <hyperlink ref="B288" r:id="rId259"/>
+    <hyperlink ref="B289" r:id="rId260"/>
+    <hyperlink ref="B290" r:id="rId261"/>
+    <hyperlink ref="B291" r:id="rId262"/>
+    <hyperlink ref="B292" r:id="rId263"/>
+    <hyperlink ref="B293" r:id="rId264"/>
+    <hyperlink ref="B294" r:id="rId265"/>
+    <hyperlink ref="B295" r:id="rId266"/>
+    <hyperlink ref="B298" r:id="rId267"/>
+    <hyperlink ref="B299" r:id="rId268"/>
+    <hyperlink ref="B300" r:id="rId269"/>
+    <hyperlink ref="B304" r:id="rId270"/>
+    <hyperlink ref="B305" r:id="rId271"/>
+    <hyperlink ref="B306" r:id="rId272"/>
+    <hyperlink ref="B307" r:id="rId273"/>
+    <hyperlink ref="B308" r:id="rId274"/>
+    <hyperlink ref="B309" r:id="rId275"/>
+    <hyperlink ref="B310" r:id="rId276"/>
+    <hyperlink ref="B311" r:id="rId277"/>
+    <hyperlink ref="B312" r:id="rId278"/>
+    <hyperlink ref="B313" r:id="rId279"/>
+    <hyperlink ref="B317" r:id="rId280"/>
+    <hyperlink ref="B318" r:id="rId281"/>
+    <hyperlink ref="B319" r:id="rId282"/>
+    <hyperlink ref="B320" r:id="rId283"/>
+    <hyperlink ref="B321" r:id="rId284"/>
+    <hyperlink ref="B322" r:id="rId285"/>
+    <hyperlink ref="B323" r:id="rId286"/>
+    <hyperlink ref="B324" r:id="rId287"/>
+    <hyperlink ref="B325" r:id="rId288"/>
+    <hyperlink ref="B326" r:id="rId289"/>
+    <hyperlink ref="B327" r:id="rId290"/>
+    <hyperlink ref="B328" r:id="rId291"/>
+    <hyperlink ref="B329" r:id="rId292"/>
+    <hyperlink ref="B330" r:id="rId293"/>
+    <hyperlink ref="B331" r:id="rId294"/>
+    <hyperlink ref="B332" r:id="rId295"/>
+    <hyperlink ref="B333" r:id="rId296"/>
+    <hyperlink ref="B334" r:id="rId297"/>
+    <hyperlink ref="B337" r:id="rId298"/>
+    <hyperlink ref="B338" r:id="rId299"/>
+    <hyperlink ref="B339" r:id="rId300"/>
+    <hyperlink ref="B340" r:id="rId301"/>
   </hyperlinks>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="6" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId302"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="6" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="329">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1492,7 +1492,7 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1517,14 +1517,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="13.2">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="13.2">
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="13.2">
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="13.2">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="13.2">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="13.2">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="13.2">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="13.2">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="13.2">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="13.2">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="13.2">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="13.2">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="13.2">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="13.2">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="13.2">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="13.2">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="13.2">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="13.2">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="13.2">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="13.2">
       <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="15">
       <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="13.2">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="13.2">
       <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
@@ -1895,42 +1895,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.2">
+    <row r="38" spans="1:8" ht="13.8">
       <c r="A38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="26" t="s">
         <v>47</v>
       </c>
+      <c r="C38" s="27" t="s">
+        <v>14</v>
+      </c>
       <c r="F38" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.2">
+    <row r="39" spans="1:8" ht="13.8">
       <c r="A39" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="13.2">
+      <c r="C39" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="13.8">
       <c r="A40" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>50</v>
       </c>
+      <c r="C40" s="27" t="s">
+        <v>14</v>
+      </c>
       <c r="H40" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.2">
+    <row r="41" spans="1:8" ht="13.8">
       <c r="A41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="26" t="s">
         <v>51</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>11</v>

--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="331">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
   </si>
   <si>
     <t>Adobe</t>
@@ -1031,12 +1028,21 @@
   <si>
     <t>https://leetcode.com/problems/count-of-range-sum/</t>
   </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1187,8 +1193,15 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1206,6 +1219,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1216,12 +1234,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1271,8 +1290,12 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,8 +1514,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1528,325 +1551,326 @@
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="13.2">
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7"/>
       <c r="H4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.8">
       <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.8">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.8">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.8">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.8">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.2">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.2">
       <c r="A11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.2">
       <c r="A12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.2">
       <c r="A13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.2">
       <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.2">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.2">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="13.2">
       <c r="A17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.2">
       <c r="A18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.2">
       <c r="A19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="13.2">
       <c r="A20" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.2">
       <c r="A21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.2">
       <c r="A22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.2">
       <c r="A23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="13.2">
       <c r="A24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13.2">
       <c r="A25" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="13.2">
       <c r="A26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15">
       <c r="A27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="13.2">
       <c r="A28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.2">
       <c r="A29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="13.2">
       <c r="A30" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="13.2">
       <c r="A31" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="13.2">
       <c r="A32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D32" s="6"/>
     </row>
@@ -1855,284 +1879,299 @@
     </row>
     <row r="34" spans="1:8" ht="13.2">
       <c r="B34" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:8" ht="13.8">
       <c r="A35" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="13.8">
       <c r="A36" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.8">
       <c r="A37" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13.8">
       <c r="A38" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.8">
       <c r="A39" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="13.8">
       <c r="A40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="C40" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.8">
       <c r="A41" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="13.8">
+      <c r="A42" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="13.2">
-      <c r="A42" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13.8">
+      <c r="A43" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="13.2">
-      <c r="A43" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="13.8">
+      <c r="A44" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="13.2">
-      <c r="A44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>54</v>
+      <c r="C44" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="13.2">
       <c r="A45" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="13.8">
+      <c r="A46" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="13.2">
-      <c r="A46" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="11" t="s">
+      <c r="C46" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="13.8">
+      <c r="A47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="13.2">
-      <c r="A47" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>57</v>
+      <c r="C47" s="27" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.2">
       <c r="A48" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="13.2">
       <c r="A49" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="13.2">
       <c r="A50" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="13.2">
       <c r="A51" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="13.2">
       <c r="A52" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="13.2">
       <c r="A53" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13.2">
       <c r="A54" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.2">
       <c r="H55" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="13.2">
       <c r="B56" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="13.2">
       <c r="A57" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="13.2">
       <c r="A58" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="13.2">
       <c r="A59" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="13.2">
       <c r="A60" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="13.2">
       <c r="A61" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="13.2">
@@ -2140,298 +2179,298 @@
     </row>
     <row r="63" spans="1:8" ht="13.2">
       <c r="B63" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="13.2">
       <c r="A64" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.2">
       <c r="A65" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="13.2">
       <c r="A66" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="13.2">
       <c r="A67" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.2">
       <c r="A68" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.2">
       <c r="A69" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.2">
       <c r="A70" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.2">
       <c r="A71" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.2">
       <c r="A72" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.2">
       <c r="A73" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.2">
       <c r="A74" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="13.2">
       <c r="A75" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="13.2">
       <c r="B77" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15">
       <c r="A78" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.2">
       <c r="A79" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15">
       <c r="A80" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="13.2">
       <c r="A81" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15">
       <c r="A82" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15">
       <c r="A83" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="13.2">
       <c r="A84" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15">
       <c r="A85" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15">
       <c r="A86" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="13.2">
       <c r="A87" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="13.2">
       <c r="A88" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="13.2">
       <c r="A89" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15">
       <c r="A90" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15">
       <c r="A91" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15">
       <c r="A92" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15">
@@ -2439,350 +2478,350 @@
     </row>
     <row r="95" spans="1:7" ht="13.2">
       <c r="B95" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="13.2">
       <c r="A96" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="13.2">
       <c r="A97" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="13.2">
       <c r="A98" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="13.2">
       <c r="A99" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="13.2">
       <c r="A100" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="13.2">
       <c r="A101" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="13.2">
       <c r="A102" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="13.2">
       <c r="A103" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="13.2">
       <c r="A104" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="13.2">
       <c r="A105" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="13.2">
       <c r="A106" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="13.2">
       <c r="A107" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="13.2">
       <c r="A108" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="13.2">
       <c r="A109" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="13.2">
       <c r="A110" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="13.2">
       <c r="A111" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="13.2">
       <c r="A112" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="13.2">
       <c r="A113" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="13.2">
       <c r="A114" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="13.2">
       <c r="A115" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="13.2">
       <c r="A116" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="13.2">
       <c r="A117" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="13.2">
       <c r="A118" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="13.2">
       <c r="A119" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="13.2">
       <c r="A120" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="13.2">
       <c r="A121" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="13.2">
       <c r="A122" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="13.2">
       <c r="A123" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="13.2">
       <c r="A124" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="13.2">
       <c r="A125" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="13.2">
       <c r="D126" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="13.2">
       <c r="B127" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="13.2">
@@ -2790,2067 +2829,2067 @@
     </row>
     <row r="129" spans="1:8" ht="13.2">
       <c r="A129" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="13.2">
       <c r="A130" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="13.2">
       <c r="A131" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="13.2">
       <c r="A132" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="13.2">
       <c r="A133" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="13.2">
       <c r="A134" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="13.2">
       <c r="A135" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="13.2">
       <c r="A136" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="13.2">
       <c r="A137" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="13.2">
       <c r="A138" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="13.2">
       <c r="A139" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="13.2">
       <c r="A140" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="13.2">
       <c r="A141" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="13.2">
       <c r="A142" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="13.2">
       <c r="A143" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="13.2">
       <c r="A144" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="13.2">
       <c r="A145" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="13.2">
       <c r="A146" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="13.2">
       <c r="A147" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="13.2">
       <c r="A148" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="13.2">
       <c r="B151" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="13.2">
       <c r="A152" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="13.2">
       <c r="A153" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="13.2">
       <c r="A154" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="13.2">
       <c r="A155" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="13.2">
       <c r="A156" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="13.2">
       <c r="A157" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="13.2">
       <c r="A158" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="13.2">
       <c r="A159" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="13.2">
       <c r="A160" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="13.2">
       <c r="A161" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="13.2">
       <c r="A162" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="13.2">
       <c r="A163" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="13.2">
       <c r="A164" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="13.2">
       <c r="A165" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="13.2">
       <c r="A166" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="13.2">
       <c r="A167" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="13.2">
       <c r="A168" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="13.2">
       <c r="A169" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="13.2">
       <c r="A170" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="13.2">
       <c r="A171" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="13.2">
       <c r="A172" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="13.2">
       <c r="A173" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="13.2">
       <c r="A174" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="13.2">
       <c r="A175" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="13.2">
       <c r="A176" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="13.2">
       <c r="A177" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="13.2">
       <c r="A178" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="13.2">
       <c r="A179" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="13.2">
       <c r="A180" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="13.2">
       <c r="A181" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="13.2">
       <c r="A182" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="13.2">
       <c r="A183" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="13.2">
       <c r="A184" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="13.2">
       <c r="A185" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="13.2">
       <c r="A186" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="13.2">
       <c r="A187" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="13.2">
       <c r="A188" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="13.2">
       <c r="A189" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="13.2">
       <c r="A190" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="13.2">
       <c r="A191" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="13.2">
       <c r="A192" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="13.2">
       <c r="A193" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="13.2">
       <c r="A194" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="13.2">
       <c r="A195" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B195" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="13.2">
       <c r="A196" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B196" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="13.2">
       <c r="A197" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="13.2">
       <c r="A198" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="13.2">
       <c r="A199" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="13.2">
       <c r="B201" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="13.2">
       <c r="A202" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="13.2">
       <c r="A203" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="13.2">
       <c r="A204" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="13.2">
       <c r="A205" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="13.2">
       <c r="A206" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="13.2">
       <c r="A207" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="13.2">
       <c r="A208" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="13.2">
       <c r="A209" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="13.2">
       <c r="A210" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="13.2">
       <c r="A211" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="13.2">
       <c r="A212" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="13.2">
       <c r="A213" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="13.2">
       <c r="A214" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="13.2">
       <c r="A215" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="13.2">
       <c r="A216" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="13.2">
       <c r="A217" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="13.2">
       <c r="A218" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="13.2">
       <c r="A219" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="13.2">
       <c r="A220" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="13.2">
       <c r="A221" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="13.2">
       <c r="A222" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="13.2">
       <c r="A223" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="13.2">
       <c r="A224" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="13.2">
       <c r="A225" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="13.2">
       <c r="A226" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="13.2">
       <c r="A227" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="13.2">
       <c r="A228" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="13.2">
       <c r="A229" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="13.2">
       <c r="A230" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="13.2">
       <c r="A231" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="13.2">
       <c r="A232" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="13.2">
       <c r="A233" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="13.2">
       <c r="A234" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="13.2">
       <c r="A235" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="13.2">
       <c r="A236" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="13.2">
       <c r="A237" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="13.2">
       <c r="A238" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="13.2">
       <c r="D239" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="13.2">
       <c r="B240" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="13.2">
       <c r="A241" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="13.2">
       <c r="A242" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="13.2">
       <c r="A243" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="13.2">
       <c r="A244" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="13.2">
       <c r="A245" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="13.2">
       <c r="A246" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D246" s="6"/>
     </row>
     <row r="247" spans="1:8" ht="13.2">
       <c r="D247" s="6"/>
       <c r="H247" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="13.2">
       <c r="B248" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="13.2">
       <c r="A250" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B250" s="17" t="s">
         <v>245</v>
-      </c>
-      <c r="B250" s="17" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="13.2">
       <c r="A251" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="13.2">
       <c r="A252" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="13.2">
       <c r="A253" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="13.2">
       <c r="A254" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="13.2">
       <c r="A255" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="13.2">
       <c r="A256" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="13.2">
       <c r="A257" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H257" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="13.2">
       <c r="A258" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="13.2">
       <c r="A259" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="13.2">
       <c r="A260" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="13.2">
       <c r="A261" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="13.2">
       <c r="A262" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="13.2">
       <c r="A263" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="13.2">
       <c r="B265" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="13.2">
       <c r="A266" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="13.2">
       <c r="A267" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="13.2">
       <c r="A268" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="13.2">
       <c r="A269" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="13.2">
       <c r="A270" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H270" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="13.2">
       <c r="A271" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="13.2">
       <c r="A272" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="13.2">
       <c r="A273" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="13.2">
       <c r="A274" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="13.2">
       <c r="A275" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="13.2">
       <c r="A276" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H276" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="13.2">
       <c r="A277" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="13.2">
       <c r="A278" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="13.2">
       <c r="A279" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="13.2">
       <c r="A280" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="13.2">
       <c r="A281" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="13.2">
       <c r="A282" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="13.2">
       <c r="A283" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="13.2">
       <c r="A284" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H284" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="13.2">
       <c r="A285" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="13.2">
       <c r="A286" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="13.2">
       <c r="A287" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="13.2">
       <c r="A288" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="13.2">
       <c r="A289" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="13.2">
       <c r="A290" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="13.2">
       <c r="A291" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="13.2">
       <c r="A292" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="13.2">
       <c r="A293" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H293" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="13.2">
       <c r="A294" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="13.2">
       <c r="A295" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="13.2">
       <c r="D296" s="6"/>
       <c r="G296" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="13.2">
       <c r="B297" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="13.2">
       <c r="A298" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="13.2">
       <c r="A299" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="13.2">
       <c r="A300" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="13.2">
       <c r="B303" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="13.2">
       <c r="A304" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="13.2">
       <c r="A305" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="13.2">
       <c r="A306" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="13.2">
       <c r="A307" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="13.2">
       <c r="A308" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F308" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="13.2">
       <c r="A309" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="13.2">
       <c r="A310" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="13.2">
       <c r="A311" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H311" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="13.2">
       <c r="A312" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F312" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="13.2">
       <c r="A313" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G313" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H313" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="13.2">
       <c r="B316" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="13.2">
       <c r="A317" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="13.2">
       <c r="A318" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F318" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H318" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="13.2">
       <c r="A319" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="13.2">
       <c r="A320" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="13.2">
       <c r="A321" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G321" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="13.2">
       <c r="A322" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="13.2">
       <c r="A323" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="13.2">
       <c r="A324" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H324" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="13.2">
       <c r="A325" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="13.2">
       <c r="A326" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F326" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="13.2">
       <c r="A327" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="13.2">
       <c r="A328" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H328" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="13.2">
       <c r="A329" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="13.2">
       <c r="A330" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="13.2">
       <c r="A331" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G331" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="13.2">
       <c r="A332" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="13.2">
       <c r="A333" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="13.2">
       <c r="A334" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H334" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="13.2">
       <c r="F335" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="13.8">
       <c r="B336" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="13.2">
       <c r="A337" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B337" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="B337" s="8" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="13.2">
       <c r="A338" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="13.2">
       <c r="A339" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H339" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="13.2">
       <c r="A340" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="332">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1037,12 +1037,15 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>pending</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1200,8 +1203,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1224,6 +1234,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1234,13 +1249,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1293,11 +1309,15 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1514,8 +1534,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1641,12 +1661,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.2">
+    <row r="10" spans="1:9" ht="13.8">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="26" t="s">
         <v>18</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -1680,39 +1703,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.2">
+    <row r="13" spans="1:9" ht="13.8">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="13.2">
+      <c r="C13" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.8">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="13.2">
+      <c r="C14" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.8">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="26" t="s">
         <v>24</v>
       </c>
+      <c r="C15" s="27" t="s">
+        <v>13</v>
+      </c>
       <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.2">
+    <row r="16" spans="1:9" ht="13.8">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="26" t="s">
         <v>25</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>10</v>
@@ -2047,19 +2082,22 @@
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.2">
+    <row r="48" spans="1:8" ht="13.8">
       <c r="A48" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="26" t="s">
         <v>57</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="13.2">
       <c r="A49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="26" t="s">
         <v>58</v>
       </c>
     </row>

--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="332">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1756,12 +1756,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.2">
+    <row r="17" spans="1:8" ht="13.8">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>26</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>10</v>

--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="332">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1781,36 +1781,48 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.2">
+    <row r="19" spans="1:8" ht="13.8">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="13.2">
+      <c r="C19" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.8">
       <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="13.2">
+      <c r="C20" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.8">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="13.2">
+      <c r="C21" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.8">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="26" t="s">
         <v>31</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>10</v>

--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="332">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1038,7 +1038,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>pending</t>
+    <t>need revision</t>
   </si>
 </sst>
 </file>
@@ -1534,8 +1534,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2120,19 +2120,22 @@
       <c r="A50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="26" t="s">
         <v>59</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13.2">
+    <row r="51" spans="1:8" ht="13.8">
       <c r="A51" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="26" t="s">
         <v>60</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>331</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>10</v>

--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="332">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1534,8 +1534,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="C319" sqref="C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4708,12 +4708,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="13.2">
+    <row r="317" spans="1:8" ht="13.8">
       <c r="A317" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B317" s="11" t="s">
+      <c r="B317" s="26" t="s">
         <v>305</v>
+      </c>
+      <c r="C317" s="27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="13.2">
@@ -4730,12 +4733,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="13.2">
+    <row r="319" spans="1:8" ht="13.8">
       <c r="A319" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B319" s="11" t="s">
+      <c r="B319" s="26" t="s">
         <v>307</v>
+      </c>
+      <c r="C319" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="E319" s="6" t="s">
         <v>10</v>
